--- a/src/main/java/cn/nancy/scheduling_of_rfl/spea2/experiment.xlsx
+++ b/src/main/java/cn/nancy/scheduling_of_rfl/spea2/experiment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaProjects\graduation\sourse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaProjects\scheduling_of_rfl\src\main\java\cn\nancy\scheduling_of_rfl\spea2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864E7376-68F3-4A80-A314-FFD0DD8593FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B1E6F7-3E84-4D5A-9577-3BB916F3F15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4188" yWindow="3072" windowWidth="16440" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="design" sheetId="6" r:id="rId1"/>
@@ -18,16 +18,6 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -790,7 +780,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
